--- a/api/placas/data/Zatan_v3 (1).xlsx
+++ b/api/placas/data/Zatan_v3 (1).xlsx
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1782,7 +1782,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="1" sqref="A1:M1 B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1976,7 +1976,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:M1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2195,8 +2195,8 @@
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O37" activeCellId="0" sqref="O37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3140,7 +3140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>25</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>80</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>606</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
